--- a/excel_with_subclasses/with_count/rapid_transit_with_count.xlsx
+++ b/excel_with_subclasses/with_count/rapid_transit_with_count.xlsx
@@ -506,7 +506,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
